--- a/src/main/webapp/assets/media/file/Import_Trainee.xlsx
+++ b/src/main/webapp/assets/media/file/Import_Trainee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\Project\g6\src\test\java\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\Project\g6\src\main\webapp\assets\media\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4373A4F-6763-4A08-8888-E772C109BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9BF3FA-A11D-4D8C-8A4E-7BCEA240FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{804D6769-8EC6-41CE-AF77-9F5A74A6406C}"/>
+    <workbookView xWindow="3225" yWindow="3225" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{804D6769-8EC6-41CE-AF77-9F5A74A6406C}"/>
   </bookViews>
   <sheets>
     <sheet name="foxz" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Fullname</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Mobile</t>
-  </si>
-  <si>
-    <t>Grade</t>
   </si>
   <si>
     <t>Nguyen Van 2</t>
@@ -97,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +126,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,11 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -200,29 +185,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -548,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4384B3B8-74CA-437D-8AD9-B485C20880BF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,92 +542,74 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7">
-        <v>8.1</v>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="7">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D7EB1E6B-16BF-4FBD-B97A-B9DEFF7AA20B}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A0C78B9C-2F47-41EC-B341-414DC38F3C8D}"/>
